--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value449.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value449.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.356227714229942</v>
+        <v>1.029210448265076</v>
       </c>
       <c r="B1">
-        <v>1.375848479580631</v>
+        <v>1.675835013389587</v>
       </c>
       <c r="C1">
-        <v>1.544002098844156</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.379826816353482</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>3.352314016260789</v>
+        <v>1.356619119644165</v>
       </c>
     </row>
   </sheetData>
